--- a/excel_path/sharpoint_220709.xlsx
+++ b/excel_path/sharpoint_220709.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\Friday\excel_path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC58171F-72F6-4083-BE3A-6DFF781AA7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7E97C9-6188-4773-900C-DD3CCD78833E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="24360" windowHeight="11400" xr2:uid="{1BBE58BC-FB98-4A7E-8DC8-5418BECC5DF3}"/>
   </bookViews>
@@ -38,10 +38,10 @@
     <t>A</t>
   </si>
   <si>
-    <t xml:space="preserve">B </t>
+    <t>C</t>
   </si>
   <si>
-    <t>C</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,10 +441,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
